--- a/data/niz.xlsx
+++ b/data/niz.xlsx
@@ -8955,6 +8955,91 @@
         <v>175702.0</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="B523" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="C523" t="n">
+        <v>18842.0</v>
+      </c>
+      <c r="D523" t="n" s="2">
+        <v>44411.0</v>
+      </c>
+      <c r="E523" t="n">
+        <v>176207.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>523.0</v>
+      </c>
+      <c r="B524" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="C524" t="n">
+        <v>18843.0</v>
+      </c>
+      <c r="D524" t="n" s="2">
+        <v>44412.0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>176954.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B525" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="C525" t="n">
+        <v>18844.0</v>
+      </c>
+      <c r="D525" t="n" s="2">
+        <v>44413.0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>177520.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>525.0</v>
+      </c>
+      <c r="B526" t="n">
+        <v>565.0</v>
+      </c>
+      <c r="C526" t="n">
+        <v>18845.0</v>
+      </c>
+      <c r="D526" t="n" s="2">
+        <v>44414.0</v>
+      </c>
+      <c r="E526" t="n">
+        <v>178085.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="B527" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="C527" t="n">
+        <v>18846.0</v>
+      </c>
+      <c r="D527" t="n" s="2">
+        <v>44415.0</v>
+      </c>
+      <c r="E527" t="n">
+        <v>178558.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/niz.xlsx
+++ b/data/niz.xlsx
@@ -9040,6 +9040,23 @@
         <v>178558.0</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>527.0</v>
+      </c>
+      <c r="B528" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>18847.0</v>
+      </c>
+      <c r="D528" t="n" s="2">
+        <v>44416.0</v>
+      </c>
+      <c r="E528" t="n">
+        <v>179029.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
